--- a/mp-starter/src/main/resources/excels/hydrology.xlsx
+++ b/mp-starter/src/main/resources/excels/hydrology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Project/IdeaProjects/CMS/mp-starter/src/main/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="5920" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="800" windowWidth="24960" windowHeight="13900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>currentspeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,7 +91,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,18 +369,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,27 +390,21 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>43749</v>
       </c>
     </row>
